--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2412945.679313411</v>
+        <v>2410081.801700644</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.10522832</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9363272.594773941</v>
+        <v>9363272.594773937</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="G2" t="n">
-        <v>25.79717485420767</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.710907708664866</v>
+      </c>
+      <c r="U2" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,70 +741,70 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>29.89427490705984</v>
       </c>
-      <c r="E3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="F3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="Y3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>33.93991247395533</v>
@@ -905,17 +905,17 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.89412103271894</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>11.85612676368803</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,52 +1066,52 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="S7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>95.29437339944222</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.74888350366829</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589335072</v>
+        <v>52.26183589334956</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>175.3318063516141</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="W8" t="n">
-        <v>175.3318063516141</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>175.3318063516141</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>81.54548989577123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>127.607789151573</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>48.53902377671831</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.2405558211279</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.09584543112125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.0808971906846</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.7973442634885</v>
+        <v>27.7973442634878</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>145.9534932992551</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>156.0132238233761</v>
       </c>
       <c r="X10" t="n">
-        <v>168.0789489474581</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>175.3318063516159</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095547012</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>136.9649966249141</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>89.67992556049255</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137239</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.5513683573767</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,10 +2375,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>97.98413062224057</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.05480806223585</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>195.7650292738202</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.33703994142951</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534453</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3963959210116</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>166.3208822291519</v>
+        <v>99.43007309478926</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="C2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="D2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="E2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="F2" t="n">
-        <v>32.91143027777485</v>
+        <v>56.50027777633954</v>
       </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4331,19 +4331,19 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>34.95810984817397</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>34.95810984817397</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
-        <v>34.95810984817397</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="N2" t="n">
-        <v>68.55862319738975</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4355,25 +4355,25 @@
         <v>135.7596498958213</v>
       </c>
       <c r="S2" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T2" t="n">
-        <v>101.4769100231392</v>
+        <v>132.0112582709073</v>
       </c>
       <c r="U2" t="n">
-        <v>101.4769100231392</v>
+        <v>97.72851839822518</v>
       </c>
       <c r="V2" t="n">
-        <v>101.4769100231392</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="W2" t="n">
-        <v>101.4769100231392</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="X2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.19417015045701</v>
+        <v>63.44577852554302</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C3" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D3" t="n">
-        <v>71.28067274328075</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F3" t="n">
         <v>2.715192997916426</v>
@@ -4410,10 +4410,10 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>34.95810984817397</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L3" t="n">
-        <v>34.95810984817397</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="M3" t="n">
         <v>34.95810984817397</v>
@@ -4431,28 +4431,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.4769100231392</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="4">
@@ -4507,31 +4507,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="R4" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4769100231392</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T4" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="U4" t="n">
-        <v>67.19417015045701</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V4" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="W4" t="n">
         <v>36.99793287059858</v>
       </c>
-      <c r="W4" t="n">
-        <v>2.715192997916426</v>
-      </c>
       <c r="X4" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="E5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="F5" t="n">
+        <v>57.26334608731877</v>
+      </c>
+      <c r="G5" t="n">
         <v>41.94824656477385</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.078485107422247</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4568,28 +4568,28 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
+        <v>3.078485107422247</v>
+      </c>
+      <c r="L5" t="n">
         <v>41.17473831177255</v>
       </c>
-      <c r="L5" t="n">
-        <v>79.27099151612285</v>
-      </c>
       <c r="M5" t="n">
-        <v>110.6672038492714</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="N5" t="n">
-        <v>110.6672038492714</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O5" t="n">
-        <v>110.6672038492714</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S5" t="n">
         <v>115.0544939137607</v>
@@ -4598,19 +4598,19 @@
         <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0544939137607</v>
+        <v>103.0786082938738</v>
       </c>
       <c r="W5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="X5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H6" t="n">
         <v>3.078485107422247</v>
@@ -4644,22 +4644,22 @@
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48135862876946</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="L6" t="n">
-        <v>85.57761183311976</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M6" t="n">
-        <v>85.57761183311976</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N6" t="n">
-        <v>85.57761183311976</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O6" t="n">
-        <v>85.57761183311976</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="P6" t="n">
         <v>115.828002166762</v>
@@ -4674,22 +4674,22 @@
         <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U6" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V6" t="n">
-        <v>115.0544939137607</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="W6" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="X6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="G7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4744,31 +4744,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R7" t="n">
         <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="T7" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="U7" t="n">
-        <v>115.0544939137607</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="W7" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0544939137607</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.90108948244061</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.85980637214905</v>
+        <v>294.331822783654</v>
       </c>
       <c r="C8" t="n">
-        <v>34.85980637214905</v>
+        <v>198.0748799559346</v>
       </c>
       <c r="D8" t="n">
-        <v>34.85980637214905</v>
+        <v>198.0748799559346</v>
       </c>
       <c r="E8" t="n">
-        <v>34.85980637214905</v>
+        <v>198.0748799559346</v>
       </c>
       <c r="F8" t="n">
-        <v>27.91430562294558</v>
+        <v>191.1293792067312</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837325</v>
+        <v>123.8762502356425</v>
       </c>
       <c r="K8" t="n">
-        <v>132.7593507837325</v>
+        <v>123.8762502356425</v>
       </c>
       <c r="L8" t="n">
-        <v>306.3378390718304</v>
+        <v>133.2252181607535</v>
       </c>
       <c r="M8" t="n">
-        <v>466.3390888241696</v>
+        <v>306.8037064488532</v>
       </c>
       <c r="N8" t="n">
-        <v>513.705631205577</v>
+        <v>354.170248830264</v>
       </c>
       <c r="O8" t="n">
-        <v>545.0972527718823</v>
+        <v>527.7487371183637</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718823</v>
+        <v>701.3272254064634</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064564</v>
+        <v>701.3272254064634</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808495</v>
+        <v>648.5374921808578</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808495</v>
+        <v>648.5374921808578</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808495</v>
+        <v>471.4346574822559</v>
       </c>
       <c r="U8" t="n">
-        <v>648.5374921808495</v>
+        <v>471.4346574822559</v>
       </c>
       <c r="V8" t="n">
-        <v>471.4346574822495</v>
+        <v>294.331822783654</v>
       </c>
       <c r="W8" t="n">
-        <v>294.3318227836494</v>
+        <v>294.331822783654</v>
       </c>
       <c r="X8" t="n">
-        <v>117.2289880850493</v>
+        <v>294.331822783654</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.85980637214905</v>
+        <v>294.331822783654</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>496.6514384559629</v>
+        <v>188.4795737892563</v>
       </c>
       <c r="C9" t="n">
-        <v>322.1984091748359</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="D9" t="n">
-        <v>173.2639995135846</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="J9" t="n">
-        <v>91.04961084172226</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="K9" t="n">
-        <v>91.04961084172226</v>
+        <v>187.605032796229</v>
       </c>
       <c r="L9" t="n">
-        <v>132.5919443696444</v>
+        <v>229.1473663241532</v>
       </c>
       <c r="M9" t="n">
-        <v>200.4267563437105</v>
+        <v>402.7258546122529</v>
       </c>
       <c r="N9" t="n">
-        <v>284.4655988576946</v>
+        <v>486.7646971262396</v>
       </c>
       <c r="O9" t="n">
-        <v>354.1702488302604</v>
+        <v>541.4240245072912</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183583</v>
+        <v>701.3272254064634</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064564</v>
+        <v>701.3272254064634</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064564</v>
+        <v>652.2979084602833</v>
       </c>
       <c r="S9" t="n">
-        <v>701.3272254064564</v>
+        <v>494.4791652066187</v>
       </c>
       <c r="T9" t="n">
-        <v>701.3272254064564</v>
+        <v>494.4791652066187</v>
       </c>
       <c r="U9" t="n">
-        <v>701.3272254064564</v>
+        <v>317.3763305080168</v>
       </c>
       <c r="V9" t="n">
-        <v>701.3272254064564</v>
+        <v>317.3763305080168</v>
       </c>
       <c r="W9" t="n">
-        <v>701.3272254064564</v>
+        <v>317.3763305080168</v>
       </c>
       <c r="X9" t="n">
-        <v>701.3272254064564</v>
+        <v>317.3763305080168</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.8667754760309</v>
+        <v>317.3763305080168</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.4723837792376</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="C10" t="n">
-        <v>503.4723837792376</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="D10" t="n">
-        <v>353.3557443669019</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="E10" t="n">
-        <v>205.4426507845088</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="F10" t="n">
-        <v>58.55270328659842</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="G10" t="n">
-        <v>58.55270328659842</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="H10" t="n">
-        <v>58.55270328659842</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="I10" t="n">
-        <v>58.55270328659842</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812913</v>
+        <v>14.02654450812927</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288359</v>
+        <v>72.1493105728847</v>
       </c>
       <c r="L10" t="n">
-        <v>202.0528747707592</v>
+        <v>202.0528747707615</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882336</v>
+        <v>349.4070924882371</v>
       </c>
       <c r="N10" t="n">
-        <v>498.6921726831102</v>
+        <v>498.6921726831151</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189909</v>
+        <v>620.564811218997</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064564</v>
+        <v>701.3272254064634</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877811</v>
+        <v>673.2490998877888</v>
       </c>
       <c r="R10" t="n">
-        <v>673.2490998877811</v>
+        <v>525.8213288784402</v>
       </c>
       <c r="S10" t="n">
-        <v>673.2490998877811</v>
+        <v>525.8213288784402</v>
       </c>
       <c r="T10" t="n">
-        <v>673.2490998877811</v>
+        <v>525.8213288784402</v>
       </c>
       <c r="U10" t="n">
-        <v>673.2490998877811</v>
+        <v>525.8213288784402</v>
       </c>
       <c r="V10" t="n">
-        <v>673.2490998877811</v>
+        <v>525.8213288784402</v>
       </c>
       <c r="W10" t="n">
-        <v>673.2490998877811</v>
+        <v>368.2322139053331</v>
       </c>
       <c r="X10" t="n">
-        <v>503.4723837792376</v>
+        <v>191.1293792067312</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.4723837792376</v>
+        <v>14.02654450812927</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368213</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>481.4479471244855</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>481.4479471244855</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>481.4479471244855</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>314.2518478393654</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226939</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947871</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000582</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529337</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5522,43 +5522,43 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4852666057155</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>449.4852666057155</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,16 +6014,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G25" t="n">
-        <v>261.8464821474262</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>120.1346509896242</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
         <v>407.9027098310023</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585278</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080346</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>576.8388927589091</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="D37" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E37" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891488</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859342</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735984</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3287287912053</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>449.3287287912053</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,31 +7403,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7661,13 +7661,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.927936255316</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1809.460189369951</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V46" t="n">
-        <v>1554.775701164064</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W46" t="n">
-        <v>1265.358531127103</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X46" t="n">
-        <v>1037.368980229086</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.5764010855557</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>240.8900576307836</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>246.6698164773692</v>
       </c>
       <c r="N2" t="n">
         <v>246.8450950403531</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4501999472249</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786171</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>162.4167993026568</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>162.1603432367662</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>237.3382646615596</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>241.2180059126716</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1585617237782</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>160.6795236990645</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>159.973720214579</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
@@ -8310,7 +8310,7 @@
         <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1458699897895</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
         <v>168.8471891366353</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>160.1237863356175</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386548</v>
+        <v>22.43379383386315</v>
       </c>
       <c r="L8" t="n">
-        <v>165.8884044070604</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1204890285715</v>
+        <v>132.8348713879224</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>143.6230976987791</v>
       </c>
       <c r="P8" t="n">
-        <v>7.786846588834919</v>
+        <v>183.1186529404481</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>54.50693749366627</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>48.28995823576838</v>
       </c>
       <c r="K9" t="n">
-        <v>3.590962737399337</v>
+        <v>178.9227690890136</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>106.8117942565972</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>15.19729554698648</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.5481065218791</v>
+        <v>136.7346849169018</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744753</v>
+        <v>33.85618372285991</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.7126101431577</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>3.329716221309752</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7255247667957</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.97276993489211</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>55.21102825632968</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>29.94462611521692</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>29.94462611521701</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>62.35543909864947</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>35.12774237125723</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>119.8635921600922</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>833166.6946275388</v>
+        <v>833166.6946275383</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
@@ -26335,25 +26335,25 @@
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003641</v>
+        <v>343539.4026003685</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192727</v>
+        <v>1086298.016192723</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335547</v>
+        <v>8880.174459335632</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230388</v>
+        <v>34635.69127230426</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575372</v>
+        <v>248550.2087575366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712362</v>
+        <v>305665.765771235</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731975</v>
-      </c>
       <c r="H4" t="n">
+        <v>8117.312426732002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731968</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426732008</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426731993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426732007</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.31242673199</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731988</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731984</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426732006</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426732006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426732002</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731985</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685951</v>
+        <v>52713.93566685972</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166303.6599059701</v>
+        <v>166303.6599059698</v>
       </c>
       <c r="C6" t="n">
-        <v>190117.7903650797</v>
+        <v>190117.7903650799</v>
       </c>
       <c r="D6" t="n">
-        <v>-65611.73239363993</v>
+        <v>-65611.73239364353</v>
       </c>
       <c r="E6" t="n">
-        <v>-569999.2436836112</v>
+        <v>-570033.9816090425</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091159</v>
+        <v>516264.0345836806</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091157</v>
+        <v>516264.03458368</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.03458368</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.03458368</v>
       </c>
       <c r="J6" t="n">
-        <v>507418.5980497799</v>
+        <v>507383.8601243443</v>
       </c>
       <c r="K6" t="n">
-        <v>515130.0254636246</v>
+        <v>515095.287538189</v>
       </c>
       <c r="L6" t="n">
-        <v>481663.0812368119</v>
+        <v>481628.3433113759</v>
       </c>
       <c r="M6" t="n">
-        <v>267748.5637515782</v>
+        <v>267713.8258261436</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091159</v>
+        <v>516264.03458368</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091153</v>
+        <v>516264.0345836802</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091157</v>
+        <v>516264.03458368</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523569</v>
+        <v>386.5211853523615</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516141</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-3.218023548783846e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332316</v>
+        <v>351.4999246332362</v>
       </c>
       <c r="E3" t="n">
-        <v>981.454314989317</v>
+        <v>981.4543149893127</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.850742508836</v>
+        <v>136.8507425088378</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480343</v>
+        <v>997.3764817480326</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395525</v>
+        <v>33.93991247395547</v>
       </c>
       <c r="K4" t="n">
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088362</v>
+        <v>136.8507425088378</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480343</v>
+        <v>997.3764817480321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.850742508836</v>
+        <v>136.8507425088378</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480343</v>
+        <v>997.3764817480326</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>389.4130465496237</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>218.9799525782346</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>293.8123459961796</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>335.7911882045137</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>117.5507906575789</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>123.7051679814456</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>111.1292999194285</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>67.19018711997774</v>
       </c>
       <c r="S3" t="n">
-        <v>136.8238088593301</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27515,16 +27515,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8606746754699</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8330727295221</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>171.742783303349</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>145.892067707982</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>52.79274755892936</v>
       </c>
       <c r="R4" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U4" t="n">
-        <v>252.3768532711237</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>222.2433684167682</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>252.5830858626357</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.9819247089925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>166.5670582748677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.5442178425012</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>167.3307766836197</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>239.4782630251232</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.0521198070892</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,7 +27710,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>77.6138060707255</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27746,19 +27746,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>161.3800371293938</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>198.9064661167063</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>213.2139193181415</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.4467624225806</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27795,10 +27795,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.39276904032837</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>135.9727348210013</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>184.4349480171686</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>189.1946896422577</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>218.2435222911091</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.6227829650879</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>269.9785183715653</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>238.4170771520524</v>
       </c>
       <c r="H8" t="n">
-        <v>323.5613947208332</v>
+        <v>323.561394720833</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5709327933336</v>
+        <v>150.5709327933329</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999465</v>
+        <v>173.6116212999461</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2938536289356</v>
+        <v>40.96204727731968</v>
       </c>
       <c r="U8" t="n">
         <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>152.4204521185208</v>
+        <v>152.4204521185191</v>
       </c>
       <c r="W8" t="n">
-        <v>173.9091623657989</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>194.3992943268549</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.6924487602823</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>38.92539449829438</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,10 +27947,10 @@
         <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2060135747428</v>
+        <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767921</v>
+        <v>60.77218657767887</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671892</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.2405558211281</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>196.8136629463422</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8866856868212</v>
+        <v>50.55487933520533</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>169.5868503461831</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.2939739422496</v>
       </c>
       <c r="H10" t="n">
-        <v>156.0301607160526</v>
+        <v>156.0301607160525</v>
       </c>
       <c r="I10" t="n">
-        <v>134.4896211379862</v>
+        <v>134.4896211379859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068401</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992555</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.8696945563088</v>
+        <v>211.8696945563087</v>
       </c>
       <c r="T10" t="n">
-        <v>224.967475377206</v>
+        <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
         <v>286.2810108792431</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>130.5097745132149</v>
       </c>
       <c r="X10" t="n">
-        <v>57.63070644157909</v>
+        <v>50.3778490374213</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>43.25284700047894</v>
       </c>
     </row>
     <row r="11">
@@ -29095,10 +29095,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-5.464171643889757e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.55385401146676</v>
+        <v>1.553854011466779</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493396</v>
+        <v>15.91340739493415</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707233</v>
+        <v>59.90495677707305</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057271</v>
+        <v>131.8814169057286</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111151</v>
+        <v>197.6560572111174</v>
       </c>
       <c r="L8" t="n">
-        <v>245.209816914541</v>
+        <v>245.2098169145439</v>
       </c>
       <c r="M8" t="n">
-        <v>272.843168190963</v>
+        <v>272.8431681909662</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010429</v>
+        <v>277.2580559010462</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745203</v>
+        <v>261.8069200745234</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664346</v>
+        <v>223.4461491664373</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807812</v>
+        <v>167.7987523807832</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779896</v>
+        <v>97.60728204780013</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629884</v>
+        <v>35.40844828629925</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195746</v>
+        <v>6.801995935195827</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173408</v>
+        <v>0.1243083209173423</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352582</v>
+        <v>0.8313851911352682</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753679</v>
+        <v>8.029430661753775</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373587</v>
+        <v>28.62444627373621</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089737</v>
+        <v>78.54766843089831</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369597</v>
+        <v>134.2504762369613</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383814</v>
+        <v>180.5163328383836</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170345</v>
+        <v>210.654046017037</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944284</v>
+        <v>216.229431794431</v>
       </c>
       <c r="O9" t="n">
-        <v>197.807686243484</v>
+        <v>197.8076862434864</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440653</v>
+        <v>158.7581072440671</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631603</v>
+        <v>106.1255903631616</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592421</v>
+        <v>51.61881037592482</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270972</v>
+        <v>15.44261528270991</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479395</v>
+        <v>3.351065748479435</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363543</v>
+        <v>0.05469639415363609</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091681</v>
+        <v>0.6970054162091764</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791386972</v>
+        <v>6.197011791387045</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927208</v>
+        <v>20.96085378927233</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598818</v>
+        <v>49.27828292598877</v>
       </c>
       <c r="K10" t="n">
-        <v>80.97935653775606</v>
+        <v>80.97935653775703</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516794</v>
+        <v>103.6256961516807</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972244</v>
+        <v>109.2587671972257</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186267</v>
+        <v>106.6608379186279</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472863</v>
+        <v>98.51854737472981</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406153</v>
+        <v>84.29963688406254</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820589</v>
+        <v>58.36469898820658</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791404</v>
+        <v>31.33989807791442</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066341</v>
+        <v>12.14690348066355</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075536</v>
+        <v>2.978114051075571</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777285</v>
+        <v>0.0380184772477733</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>579.8936048175462</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,10 +31862,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>193.9649970098534</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>150.2061940096334</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709969</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991336</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347666</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.246297345936</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>710.7237876039901</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359108</v>
       </c>
       <c r="O36" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478654</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764708</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.56860287904802</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="N2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="O2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>32.56860287904802</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>31.71334579105919</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.55594983196189</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
         <v>38.48106384277808</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511145</v>
+        <v>110.9592987146598</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>175.3318063516141</v>
+        <v>9.443401944556655</v>
       </c>
       <c r="M8" t="n">
-        <v>161.6174239922617</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445198</v>
+        <v>47.84499230445527</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283356</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.8080531662364</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.80107710463952</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="L9" t="n">
-        <v>41.96195305850725</v>
+        <v>41.96195305850938</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501617</v>
+        <v>175.3318063516159</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109512</v>
+        <v>84.8877197110977</v>
       </c>
       <c r="O9" t="n">
-        <v>70.40873734602604</v>
+        <v>55.21144179904192</v>
       </c>
       <c r="P9" t="n">
-        <v>175.3318063516141</v>
+        <v>161.5183847466386</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516141</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187321</v>
+        <v>58.70986471187418</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119956</v>
+        <v>131.2157214119968</v>
       </c>
       <c r="M10" t="n">
-        <v>148.842644159065</v>
+        <v>148.8426441590663</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978553</v>
+        <v>150.7930102978565</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887683</v>
+        <v>123.1036752887695</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895502</v>
+        <v>81.57819614895602</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>448.551892734213</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>18.86448192630007</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>122.3296324324669</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127483</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.2645232599145</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902418</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>568.5897536819718</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525775</v>
       </c>
       <c r="O36" t="n">
-        <v>359.6305704175236</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243171</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>471.5003028244908</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>310.206496003421</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202637</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
